--- a/Excel/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/Excel/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27421"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\BTS\2023\Circulaires nationales\SIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="11_1B026BFEBABE9EC498235472473257746763485C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CF361AC-5663-4552-9469-C38511128F2F}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="11_1B026BFEBABE9EC498235472473257746763485C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2765803C-ECA9-4B08-AE24-5D300DC96247}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -138,7 +138,7 @@
     <t>Réalisation et hébergement d'un portfolio sur github avec visual studio code</t>
   </si>
   <si>
-    <t>Juillet 2023 - Décembre 2023</t>
+    <t>Juillet 2023 - Fevrier 2024</t>
   </si>
   <si>
     <t>X</t>
@@ -153,7 +153,7 @@
     <t>RFTG, Raise From The Grave (application Android et Web)</t>
   </si>
   <si>
-    <t>Septembre 2023 - xxx</t>
+    <t>Septembre 2023 - Mai 2024</t>
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
@@ -162,7 +162,7 @@
     <t>Bureau des petites annonces (application web en php/javascript utilisant Laravel)</t>
   </si>
   <si>
-    <t>Juin 2023 - Décembre 2023</t>
+    <t>Juin 2023 - Janvier 2024</t>
   </si>
   <si>
     <t>Résolution d'évolutions et réalisation de la documentation sur LMG Offre collective (application web en php/javascript utilisant Laravel)</t>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <t>Popix/VTT: être bêta testeur pour l'installation et la manipulation de VTT</t>
+  </si>
+  <si>
+    <t>Novembre 2023 - xxx</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,34 +813,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1222,8 +1228,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -1445,16 +1451,16 @@
       <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="28" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="31" t="s">
         <v>27</v>
       </c>
       <c r="I9"/>
@@ -1500,14 +1506,14 @@
       <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="29" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="15"/>
@@ -1555,17 +1561,17 @@
       <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="16"/>
@@ -1974,20 +1980,20 @@
       <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="C20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I20"/>
@@ -2034,7 +2040,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="15"/>
@@ -2084,17 +2090,17 @@
       <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="16"/>
@@ -2138,20 +2144,20 @@
       <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="22">
         <v>44927</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="16"/>
@@ -2199,14 +2205,14 @@
         <v>41</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>27</v>
       </c>
       <c r="H24" s="16"/>
@@ -2250,18 +2256,18 @@
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="22">
         <v>44896</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="22" t="s">
+      <c r="F25" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="29" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="16"/>
@@ -2305,18 +2311,18 @@
       <c r="A26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="22">
         <v>44896</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="22" t="s">
+      <c r="F26" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="29" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="16"/>
@@ -2410,20 +2416,20 @@
       <c r="B28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="23" t="s">
+      <c r="C28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I28"/>
@@ -2469,14 +2475,14 @@
       <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2514,14 +2520,24 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
+      <c r="A30" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="27"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2859,8 +2875,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFED1F21C9609C42B7CDDDC32024A76C" ma:contentTypeVersion="5" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f0e5ac0599bd7c8e4e1e951b5951f37d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc1644fb-d9c0-44ca-9492-d58982ee37fd" xmlns:ns3="38798e0b-606b-4bfe-98c3-9781a21c1a99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f80a5dcdcf8b7dff98ac44709344c2f" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFED1F21C9609C42B7CDDDC32024A76C" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e95c859d33623020f493e138ffad50d9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc1644fb-d9c0-44ca-9492-d58982ee37fd" xmlns:ns3="38798e0b-606b-4bfe-98c3-9781a21c1a99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3578dad9b0cee65440f462f8d843fc9" ns2:_="" ns3:_="">
     <xsd:import namespace="cc1644fb-d9c0-44ca-9492-d58982ee37fd"/>
     <xsd:import namespace="38798e0b-606b-4bfe-98c3-9781a21c1a99"/>
     <xsd:element name="properties">
@@ -2874,6 +2890,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2897,6 +2914,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3043,7 +3065,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C109C32-2B9F-4B7A-A518-E3DB38C1A196}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F729AF-DF09-4CA5-ACAD-3EBEA63536B8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
